--- a/Data/Apollo Historic Launch Weather Data.xlsx
+++ b/Data/Apollo Historic Launch Weather Data.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5896e1b568e196aa/Desktop/GitHub/personal/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372C1057-A5F4-4C87-8DEB-DD169991E2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{372C1057-A5F4-4C87-8DEB-DD169991E2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8A04B316-FF3E-4D4A-963A-CA34FE2C85CE}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="2960" windowWidth="22500" windowHeight="14710" xr2:uid="{67858745-FCE8-44A5-BFA1-4A6F0D55412E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="20220" xr2:uid="{67858745-FCE8-44A5-BFA1-4A6F0D55412E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftnref3" localSheetId="0">Sheet1!$A$58</definedName>
+    <definedName name="_ftnref3" localSheetId="1">Sheet1!$A$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -441,7 +445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -460,12 +464,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -491,12 +606,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -513,6 +637,2339 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Apollo Historic Launch Weather Data.xlsx]Sheet2!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="948280031"/>
+        <c:axId val="1061186671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="948280031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061186671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1061186671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948280031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C51158-F3BB-4D0A-B473-CF84BA12568D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nathan Young" refreshedDate="43990.819476736113" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="62" xr:uid="{91B6F44D-D586-46B5-8CF5-154B38192839}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="z" numFmtId="0">
+      <sharedItems containsBlank="1" count="49">
+        <m/>
+        <s v="Surface Observations"/>
+        <s v="Pressure (lb/in²)"/>
+        <s v="Temperature (°F)"/>
+        <s v="Relative Humidity"/>
+        <s v="Dew Point (°F)"/>
+        <s v="Visibility (s mi)"/>
+        <s v="Surface Wind Conditions"/>
+        <s v="1st Level Wind Site (ft)"/>
+        <s v="1st Level Wind Speed (ft/sec)"/>
+        <s v="1st Level Wind Direction (deg)"/>
+        <s v="2nd Level Wind Site (ft)"/>
+        <s v="2nd Level Wind Speed (ft/sec)"/>
+        <s v="2nd Level Wind Direction (deg)"/>
+        <s v="Cloud Coverage"/>
+        <s v="1st Level Cover"/>
+        <s v="1st Level Type"/>
+        <s v="1st Level Altitude (ft)"/>
+        <s v="2nd Level Cover"/>
+        <s v="2nd Level Type"/>
+        <s v="2nd Level Altitude (ft)"/>
+        <s v="3rd Level Cover"/>
+        <s v="3rd Level Type"/>
+        <s v="3rd Level Altitude (ft)"/>
+        <s v="Maximum Wind Speed/Ascent"/>
+        <s v="Speed (ft/sec)"/>
+        <s v="Altitude (ft)"/>
+        <s v="Maximum Dynamic Pressure"/>
+        <s v="Ground Elapsed Time (sec)"/>
+        <s v="Max q (lb/ft2)"/>
+        <s v="Maximum Wind Conditions in"/>
+        <s v="   High Dynamic Pressure Region"/>
+        <s v="Wind Speed (ft/sec)"/>
+        <s v="Wind Direction (deg)"/>
+        <s v="Maximum Wind Components"/>
+        <s v="Pitch Plane - Pitch (ft/sec)"/>
+        <s v="Pitch Plane - Altitude (ft)"/>
+        <s v="Yaw Plane - Yaw (ft/sec)"/>
+        <s v="Yaw Plane - Altitude (ft)"/>
+        <s v="Maximum Shear Values"/>
+        <s v="   (D h=1000 m)"/>
+        <s v="Pitch Plane Shear (sec-1)"/>
+        <s v="Pitch Plane Altitude (ft)"/>
+        <s v="Yaw Plane Shear (sec-1)"/>
+        <s v="Yaw Plane Altitude (ft)"/>
+        <s v="Maximum % Density Deviations"/>
+        <s v="Negative Deviation From PRA63[3]"/>
+        <s v="Altitude (n mi)"/>
+        <s v="Positive Deviation from PRA63"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Apollo 7" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-0.1" maxValue="172000" count="35">
+        <m/>
+        <n v="14.765000000000001"/>
+        <n v="82.9"/>
+        <n v="0.65"/>
+        <n v="70"/>
+        <n v="11.5"/>
+        <n v="64"/>
+        <n v="33.5"/>
+        <n v="90"/>
+        <s v="N/R[2]"/>
+        <s v="N/R"/>
+        <n v="0.3"/>
+        <s v="Cumulonimbus"/>
+        <n v="2100"/>
+        <s v="---"/>
+        <n v="136.19999999999999"/>
+        <n v="172000"/>
+        <n v="75.5"/>
+        <n v="665.6"/>
+        <n v="39903"/>
+        <n v="44500"/>
+        <n v="51.1"/>
+        <n v="309"/>
+        <n v="51.8"/>
+        <n v="36800"/>
+        <n v="51.5"/>
+        <n v="47500"/>
+        <n v="1.1299999999999999E-2"/>
+        <n v="48100"/>
+        <n v="8.5000000000000006E-3"/>
+        <n v="46500"/>
+        <n v="-0.1"/>
+        <n v="4.32"/>
+        <n v="1.3"/>
+        <n v="5.8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Apollo 8" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-0.7" maxValue="108300" count="33">
+        <m/>
+        <n v="14.804"/>
+        <n v="59"/>
+        <n v="0.88"/>
+        <n v="56"/>
+        <n v="9.9"/>
+        <n v="60"/>
+        <n v="18.7"/>
+        <n v="348"/>
+        <s v="N/R"/>
+        <n v="0.4"/>
+        <s v="Cirrus"/>
+        <s v="---"/>
+        <n v="150.9"/>
+        <n v="108300"/>
+        <n v="78.900000000000006"/>
+        <n v="776.93799999999999"/>
+        <n v="44062"/>
+        <n v="49900"/>
+        <n v="114.1"/>
+        <n v="284"/>
+        <n v="102.4"/>
+        <n v="49500"/>
+        <n v="74.099999999999994"/>
+        <n v="51800"/>
+        <n v="1.03E-2"/>
+        <n v="52500"/>
+        <n v="1.5699999999999999E-2"/>
+        <n v="57800"/>
+        <n v="-0.7"/>
+        <n v="4.32"/>
+        <n v="3.3"/>
+        <n v="8.5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Apollo 9" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-6.1" maxValue="49700"/>
+    </cacheField>
+    <cacheField name="Apollo 10" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-1" maxValue="295276"/>
+    </cacheField>
+    <cacheField name="Apollo 11" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-0.2" maxValue="183727"/>
+    </cacheField>
+    <cacheField name="Apollo 12" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-64" maxValue="180446"/>
+    </cacheField>
+    <cacheField name="Apollo 13" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-2.8" maxValue="256562"/>
+    </cacheField>
+    <cacheField name="Apollo 14" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-5" maxValue="193570"/>
+    </cacheField>
+    <cacheField name="Apollo 15" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-58.4" maxValue="182900"/>
+    </cacheField>
+    <cacheField name="Apollo 16" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-0.8" maxValue="50850"/>
+    </cacheField>
+    <cacheField name="Apollo 17" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="145996" count="36">
+        <m/>
+        <n v="14.795"/>
+        <n v="70"/>
+        <n v="0.93"/>
+        <n v="68"/>
+        <n v="6.8"/>
+        <n v="60"/>
+        <n v="13.5"/>
+        <n v="5"/>
+        <n v="530"/>
+        <n v="17.7"/>
+        <n v="335"/>
+        <n v="0.2"/>
+        <s v="Stratocumulus"/>
+        <n v="26000"/>
+        <n v="0.5"/>
+        <s v="Cirrus"/>
+        <s v="---"/>
+        <n v="252.6"/>
+        <n v="145996"/>
+        <n v="82.5"/>
+        <n v="701.75"/>
+        <n v="42847"/>
+        <n v="39945"/>
+        <n v="147.9"/>
+        <n v="311"/>
+        <n v="114.2"/>
+        <n v="95.8"/>
+        <n v="37237"/>
+        <n v="1.77E-2"/>
+        <n v="26164"/>
+        <n v="1.4800000000000001E-2"/>
+        <n v="34940"/>
+        <n v="0"/>
+        <n v="1.7"/>
+        <n v="7.02"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="62">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14.641999999999999"/>
+    <n v="14.779"/>
+    <n v="14.798"/>
+    <n v="14.621"/>
+    <n v="14.676"/>
+    <n v="14.651999999999999"/>
+    <n v="14.788"/>
+    <n v="14.769"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="67.3"/>
+    <n v="80.099999999999994"/>
+    <n v="84.9"/>
+    <n v="68"/>
+    <n v="75.900000000000006"/>
+    <n v="71.099999999999994"/>
+    <n v="85.6"/>
+    <n v="88.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.61"/>
+    <n v="0.75"/>
+    <n v="0.73"/>
+    <n v="0.92"/>
+    <n v="0.56999999999999995"/>
+    <n v="0.86"/>
+    <n v="0.68"/>
+    <n v="0.44"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="53"/>
+    <n v="72"/>
+    <n v="75"/>
+    <n v="65"/>
+    <n v="60"/>
+    <n v="67"/>
+    <n v="74"/>
+    <n v="62.6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="9.9"/>
+    <n v="11.2"/>
+    <n v="9.9"/>
+    <n v="3.7"/>
+    <n v="9.9"/>
+    <n v="9.9"/>
+    <n v="9.9"/>
+    <n v="9.9"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="60"/>
+    <n v="60"/>
+    <n v="60"/>
+    <n v="60"/>
+    <n v="60"/>
+    <n v="60"/>
+    <n v="60"/>
+    <n v="60"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="22.6"/>
+    <n v="32.200000000000003"/>
+    <n v="10.8"/>
+    <n v="22.3"/>
+    <n v="20.7"/>
+    <n v="16.399999999999999"/>
+    <n v="16.7"/>
+    <n v="20.7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="160"/>
+    <n v="142"/>
+    <n v="175"/>
+    <n v="280"/>
+    <n v="105"/>
+    <n v="255"/>
+    <n v="156"/>
+    <n v="269"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <n v="530"/>
+    <n v="530"/>
+    <n v="530"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="10"/>
+    <x v="9"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <n v="27.9"/>
+    <n v="17.7"/>
+    <n v="16.7"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="10"/>
+    <x v="9"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <s v="N/R"/>
+    <n v="275"/>
+    <n v="158"/>
+    <n v="256"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <n v="0.7"/>
+    <n v="0.4"/>
+    <n v="0.1"/>
+    <s v="100%/rain"/>
+    <n v="0.4"/>
+    <n v="0.7"/>
+    <n v="0.7"/>
+    <n v="0.2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="12"/>
+    <x v="11"/>
+    <s v="Stratocumulus"/>
+    <s v="Cumulus"/>
+    <s v="Cumulus"/>
+    <s v="Stratocumulus"/>
+    <s v="Altocumulus"/>
+    <s v="Cumulus"/>
+    <s v="Cirrus"/>
+    <s v="Cumulus"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="13"/>
+    <x v="9"/>
+    <n v="3500"/>
+    <n v="2200"/>
+    <n v="2400"/>
+    <n v="2100"/>
+    <n v="19000"/>
+    <n v="4000"/>
+    <n v="25000"/>
+    <n v="3000"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="14"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <n v="0.2"/>
+    <s v="---"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <s v="---"/>
+    <s v="---"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="14"/>
+    <x v="12"/>
+    <s v="Altostratus"/>
+    <s v="Altocumulus"/>
+    <s v="Altocumulus"/>
+    <s v="---"/>
+    <s v="Cirrostratus"/>
+    <s v="Altocumulus"/>
+    <s v="---"/>
+    <s v="---"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="14"/>
+    <x v="12"/>
+    <n v="9000"/>
+    <n v="11000"/>
+    <n v="15000"/>
+    <s v="---"/>
+    <n v="26000"/>
+    <n v="8000"/>
+    <s v="---"/>
+    <s v="---"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="14"/>
+    <x v="12"/>
+    <s v="---"/>
+    <n v="1"/>
+    <n v="0.9"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="14"/>
+    <x v="12"/>
+    <s v="---"/>
+    <s v="Cirrus"/>
+    <s v="Cirrostratus"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="14"/>
+    <x v="12"/>
+    <s v="---"/>
+    <s v="Unknown"/>
+    <s v="Unknown"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <s v="---"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="15"/>
+    <x v="13"/>
+    <n v="250"/>
+    <n v="154"/>
+    <n v="203"/>
+    <n v="256"/>
+    <n v="246"/>
+    <n v="207"/>
+    <n v="249.3"/>
+    <n v="85.6"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="16"/>
+    <x v="14"/>
+    <n v="38480"/>
+    <n v="295276"/>
+    <n v="183727"/>
+    <n v="180446"/>
+    <n v="256562"/>
+    <n v="193570"/>
+    <n v="182900"/>
+    <n v="38880"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="17"/>
+    <x v="15"/>
+    <n v="85.5"/>
+    <n v="82.6"/>
+    <n v="83"/>
+    <n v="81.099999999999994"/>
+    <n v="81.3"/>
+    <n v="81"/>
+    <n v="82"/>
+    <n v="86"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="18"/>
+    <x v="16"/>
+    <n v="630.73"/>
+    <n v="694.23199999999997"/>
+    <n v="735.17"/>
+    <n v="682.95"/>
+    <n v="651.63"/>
+    <n v="655.8"/>
+    <n v="768.58"/>
+    <n v="726.81"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="19"/>
+    <x v="17"/>
+    <n v="45138"/>
+    <n v="43366"/>
+    <n v="44512"/>
+    <n v="42133"/>
+    <n v="40876"/>
+    <n v="40398"/>
+    <n v="44971"/>
+    <n v="47122"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="20"/>
+    <x v="18"/>
+    <n v="38480"/>
+    <n v="46520"/>
+    <n v="37400"/>
+    <n v="46670"/>
+    <n v="44540"/>
+    <n v="43270"/>
+    <n v="45110"/>
+    <n v="38880"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="21"/>
+    <x v="19"/>
+    <n v="250"/>
+    <n v="139.4"/>
+    <n v="31.6"/>
+    <n v="156.1"/>
+    <n v="182.5"/>
+    <n v="173.2"/>
+    <n v="61.1"/>
+    <n v="85.6"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="22"/>
+    <x v="20"/>
+    <n v="264"/>
+    <n v="270"/>
+    <n v="297"/>
+    <n v="245"/>
+    <n v="252"/>
+    <n v="255"/>
+    <n v="63"/>
+    <n v="257"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="23"/>
+    <x v="21"/>
+    <n v="244.4"/>
+    <n v="133.9"/>
+    <n v="24.9"/>
+    <n v="154.9"/>
+    <n v="182.4"/>
+    <n v="173.2"/>
+    <n v="-58.4"/>
+    <n v="85.3"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="24"/>
+    <x v="22"/>
+    <n v="38390"/>
+    <n v="45280"/>
+    <n v="36680"/>
+    <n v="46670"/>
+    <n v="44540"/>
+    <n v="43720"/>
+    <n v="45030"/>
+    <n v="38880"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="25"/>
+    <x v="23"/>
+    <n v="71.2"/>
+    <n v="61.4"/>
+    <n v="23.3"/>
+    <n v="-64"/>
+    <n v="49.2"/>
+    <n v="81.7"/>
+    <n v="24"/>
+    <n v="41"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="26"/>
+    <x v="24"/>
+    <n v="37500"/>
+    <n v="48720"/>
+    <n v="39530"/>
+    <n v="44780"/>
+    <n v="42750"/>
+    <n v="33460"/>
+    <n v="44040"/>
+    <n v="50850"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="27"/>
+    <x v="25"/>
+    <n v="2.4799999999999999E-2"/>
+    <n v="2.0299999999999999E-2"/>
+    <n v="7.7000000000000002E-3"/>
+    <n v="1.83E-2"/>
+    <n v="1.66E-2"/>
+    <n v="2.01E-2"/>
+    <n v="1.0999999999999999E-2"/>
+    <n v="9.4999999999999998E-3"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="28"/>
+    <x v="26"/>
+    <n v="49700"/>
+    <n v="50200"/>
+    <n v="48490"/>
+    <n v="46750"/>
+    <n v="50610"/>
+    <n v="43720"/>
+    <n v="36830"/>
+    <n v="44780"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="29"/>
+    <x v="27"/>
+    <n v="2.5399999999999999E-2"/>
+    <n v="1.2500000000000001E-2"/>
+    <n v="5.5999999999999999E-3"/>
+    <n v="1.78E-2"/>
+    <n v="1.78E-2"/>
+    <n v="2.5100000000000001E-2"/>
+    <n v="7.1000000000000004E-3"/>
+    <n v="1.14E-2"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="30"/>
+    <x v="28"/>
+    <n v="48160"/>
+    <n v="50950"/>
+    <n v="33790"/>
+    <n v="47820"/>
+    <n v="45850"/>
+    <n v="38880"/>
+    <n v="47330"/>
+    <n v="50850"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="31"/>
+    <x v="29"/>
+    <n v="-6.1"/>
+    <n v="-1"/>
+    <n v="-0.2"/>
+    <n v="-7.6"/>
+    <n v="-2.8"/>
+    <n v="-5"/>
+    <s v="None"/>
+    <n v="-0.8"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="32"/>
+    <x v="30"/>
+    <n v="7.56"/>
+    <n v="4.32"/>
+    <n v="4.45"/>
+    <n v="8.5"/>
+    <n v="7.69"/>
+    <n v="7.69"/>
+    <s v="None"/>
+    <n v="4.8600000000000003"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="33"/>
+    <x v="31"/>
+    <s v="None"/>
+    <n v="3.3"/>
+    <n v="4.4000000000000004"/>
+    <n v="1.2"/>
+    <n v="0.5"/>
+    <s v="None"/>
+    <n v="4.2"/>
+    <n v="4"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="34"/>
+    <x v="32"/>
+    <s v="None"/>
+    <n v="7.56"/>
+    <n v="7.69"/>
+    <n v="5.67"/>
+    <n v="8.64"/>
+    <s v="None"/>
+    <n v="7.56"/>
+    <n v="8.64"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04DA889A-CABC-4518-8721-1702EF479402}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="50">
+        <item x="31"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="20"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="45"/>
+        <item x="27"/>
+        <item x="39"/>
+        <item x="34"/>
+        <item x="30"/>
+        <item x="24"/>
+        <item x="46"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="48"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="25"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="36">
+        <item x="31"/>
+        <item x="29"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="34">
+        <item x="29"/>
+        <item x="25"/>
+        <item x="27"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="28"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="37">
+        <item x="33"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="34"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,11 +3268,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C69CBD-0035-4546-A180-6C087D9EAA90}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0FD556-059E-42AA-9600-E5A18067DD77}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1985,33 +4551,33 @@
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="46" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
@@ -2327,33 +4893,33 @@
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12" ht="23" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
@@ -2690,32 +5256,32 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="H38:H39"/>
     <mergeCell ref="I38:I39"/>
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" location="_ftn3" display="https://www.history.nasa.gov/SP-4029/Apollo_18-15_Launch_Weather.htm - _ftn3" xr:uid="{5CAA9623-68E2-4D34-80CA-E87CA85C695D}"/>
